--- a/courses/data/data.xlsx
+++ b/courses/data/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jegadeesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jegadeesh\Desktop\LMS API\courses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>What is Cloud Computing?</t>
   </si>
   <si>
-    <t>https://youtu.be/2LaAJq1lB1Q</t>
-  </si>
-  <si>
     <t>Cloud Deployment Models</t>
   </si>
   <si>
@@ -143,430 +140,433 @@
     <t>CI/CD and Deployment</t>
   </si>
   <si>
-    <t>https://youtu.be/kfAOEvNw9VQ</t>
-  </si>
-  <si>
     <t>Types of Data Analytics</t>
   </si>
   <si>
-    <t>https://youtu.be/lVbZ8dcLh5k</t>
-  </si>
-  <si>
     <t>Analytics Life Cycle</t>
   </si>
   <si>
-    <t>https://youtu.be/zfV3TDahY6I</t>
-  </si>
-  <si>
     <t>Roles in Data Analytics</t>
   </si>
   <si>
-    <t>https://youtu.be/5g1xgW6N2mM</t>
-  </si>
-  <si>
     <t>Tools Overview</t>
   </si>
   <si>
-    <t>https://youtu.be/xMdWkP3xL4A</t>
-  </si>
-  <si>
     <t>Handling Missing Data</t>
   </si>
   <si>
-    <t>https://youtu.be/FZK9X2yIwO8</t>
-  </si>
-  <si>
     <t>Normalization and Standardization</t>
   </si>
   <si>
-    <t>https://youtu.be/tU9GxsDg3Wk</t>
-  </si>
-  <si>
     <t>Cleaning Techniques</t>
   </si>
   <si>
-    <t>https://youtu.be/1r5IGKbfvIs</t>
-  </si>
-  <si>
     <t>Working with CSV and Excel</t>
   </si>
   <si>
-    <t>https://youtu.be/TrFwFjgaH1c</t>
-  </si>
-  <si>
     <t>Pandas &amp; Numpy Basics</t>
   </si>
   <si>
-    <t>https://youtu.be/zmdjNSmRXF4</t>
-  </si>
-  <si>
     <t>Matplotlib Tutorial</t>
   </si>
   <si>
-    <t>https://youtu.be/mRjq-FtAzXc</t>
-  </si>
-  <si>
-    <t>https://youtu.be/GCZKzVZsAaU</t>
-  </si>
-  <si>
     <t>Dashboard in Power BI</t>
   </si>
   <si>
-    <t>https://youtu.be/VO0yJjGZSrs</t>
-  </si>
-  <si>
     <t>Data Studio Basics</t>
   </si>
   <si>
-    <t>https://youtu.be/LCJAGMFnJ3U</t>
-  </si>
-  <si>
     <t>Plotly in Python</t>
   </si>
   <si>
-    <t>https://youtu.be/S3tB5d1ct1U</t>
-  </si>
-  <si>
-    <t>https://youtu.be/w5nbmFiPyhA</t>
-  </si>
-  <si>
     <t>Inferential Statistics</t>
   </si>
   <si>
-    <t>https://youtu.be/yK-Pt9oE1uA</t>
-  </si>
-  <si>
     <t>Hypothesis Testing</t>
   </si>
   <si>
-    <t>https://youtu.be/fQ7s4XME5XQ</t>
-  </si>
-  <si>
     <t>Regression Models</t>
   </si>
   <si>
-    <t>https://youtu.be/5ABpqVSx33I</t>
-  </si>
-  <si>
     <t>Using R for Analysis</t>
   </si>
   <si>
-    <t>https://youtu.be/L2vpE9X1o9U</t>
-  </si>
-  <si>
     <t>Project Dataset Explanation</t>
   </si>
   <si>
-    <t>https://youtu.be/TSNDoLrkO_k</t>
-  </si>
-  <si>
     <t>Solving Real Business Problem</t>
   </si>
   <si>
-    <t>https://youtu.be/jm7tYk1ye1M</t>
-  </si>
-  <si>
     <t>Reporting Best Practices</t>
   </si>
   <si>
-    <t>https://youtu.be/uqddM-N35Ag</t>
-  </si>
-  <si>
     <t>Generating PDF Reports</t>
   </si>
   <si>
-    <t>https://youtu.be/Y9EYQWH0D6o</t>
-  </si>
-  <si>
     <t>Presentation Skills</t>
   </si>
   <si>
-    <t>https://youtu.be/hNSYVi1HbCs</t>
-  </si>
-  <si>
-    <t>https://youtu.be/W0Hc5o3R1ew</t>
-  </si>
-  <si>
     <t>CIA Triad</t>
   </si>
   <si>
-    <t>https://youtu.be/MIiLeGTGQ8g</t>
-  </si>
-  <si>
     <t>Security Terms</t>
   </si>
   <si>
-    <t>https://youtu.be/sPaGr6U6vsM</t>
-  </si>
-  <si>
     <t>Cyber Attacks Overview</t>
   </si>
   <si>
-    <t>https://youtu.be/jSQj1FPKexM</t>
-  </si>
-  <si>
     <t>OSI &amp; Security Layers</t>
   </si>
   <si>
-    <t>https://youtu.be/VtvYOKA8BLg</t>
-  </si>
-  <si>
     <t>Firewalls and VPNs</t>
   </si>
   <si>
-    <t>https://youtu.be/XjrfbqkYCAk</t>
-  </si>
-  <si>
     <t>IDS vs IPS</t>
   </si>
   <si>
-    <t>https://youtu.be/ya6MXcWQkCA</t>
-  </si>
-  <si>
     <t>Port Scanning Tools</t>
   </si>
   <si>
-    <t>https://youtu.be/JuzR-p6KeR8</t>
-  </si>
-  <si>
     <t>Secure Network Design</t>
   </si>
   <si>
-    <t>https://youtu.be/jbP3lDe0LzU</t>
-  </si>
-  <si>
     <t>Wireshark Tutorial</t>
   </si>
   <si>
-    <t>https://youtu.be/q37FZ3XfwQQ</t>
-  </si>
-  <si>
     <t>Introduction to Ethical Hacking</t>
   </si>
   <si>
-    <t>https://youtu.be/BMf_yN2GhBc</t>
-  </si>
-  <si>
     <t>Kali Linux Basics</t>
   </si>
   <si>
-    <t>https://youtu.be/QSx5C32Yf8g</t>
-  </si>
-  <si>
     <t>Metasploit Framework</t>
   </si>
   <si>
-    <t>https://youtu.be/SkU5AfN1AAU</t>
-  </si>
-  <si>
     <t>Exploiting Vulnerabilities</t>
   </si>
   <si>
-    <t>https://youtu.be/eyowmloTtFA</t>
-  </si>
-  <si>
     <t>Penetration Testing Workflow</t>
   </si>
   <si>
-    <t>https://youtu.be/_RQRkJtynAY</t>
-  </si>
-  <si>
     <t>Cloud Threats</t>
   </si>
   <si>
-    <t>https://youtu.be/zX9ZQihQpNQ</t>
-  </si>
-  <si>
     <t>Cloud Security Shared Model</t>
   </si>
   <si>
-    <t>https://youtu.be/V9t3i2cbjNo</t>
-  </si>
-  <si>
     <t>IAM and Policy</t>
   </si>
   <si>
-    <t>https://youtu.be/ZRbSzE0kQ3M</t>
-  </si>
-  <si>
     <t>Key Management and Encryption</t>
   </si>
   <si>
-    <t>https://youtu.be/XRVvU_4qYek</t>
-  </si>
-  <si>
     <t>SOC and SIEM in Cloud</t>
   </si>
   <si>
-    <t>https://youtu.be/yRnYaRA-lpA</t>
-  </si>
-  <si>
     <t>Case Study: Target Breach</t>
   </si>
   <si>
-    <t>https://youtu.be/jP5ZKZ7RhzY</t>
-  </si>
-  <si>
     <t>Ransomware Incident Response</t>
   </si>
   <si>
-    <t>https://youtu.be/G6mCoi9hUik</t>
-  </si>
-  <si>
     <t>Security Best Practices</t>
   </si>
   <si>
-    <t>https://youtu.be/rVvjONg62so</t>
-  </si>
-  <si>
     <t>Incident Report Writing</t>
   </si>
   <si>
-    <t>https://youtu.be/2ppT7_GiItY</t>
-  </si>
-  <si>
     <t>Recovery &amp; Lessons Learned</t>
   </si>
   <si>
-    <t>https://youtu.be/iyjQykIydPA</t>
-  </si>
-  <si>
     <t>Service Models - IaaS, PaaS, SaaS</t>
   </si>
   <si>
-    <t>https://youtu.be/hhl6Htj9kPA</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Tevxhn6N4zY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/6AHu5RQjLPM</t>
-  </si>
-  <si>
     <t>Popular Cloud Providers</t>
   </si>
   <si>
-    <t>https://youtu.be/jG8s_ZSc4Ls</t>
-  </si>
-  <si>
     <t>Introduction to IAM</t>
   </si>
   <si>
-    <t>https://youtu.be/M_lWQ_CcKMo</t>
-  </si>
-  <si>
     <t>Policies and Roles</t>
   </si>
   <si>
-    <t>https://youtu.be/ZdG_A2XXd68</t>
-  </si>
-  <si>
     <t>Access Control Models</t>
   </si>
   <si>
-    <t>https://youtu.be/KXDCq7AjZ3E</t>
-  </si>
-  <si>
     <t>MFA &amp; Password Policies</t>
   </si>
   <si>
-    <t>https://youtu.be/ilKdDTR1XEs</t>
-  </si>
-  <si>
     <t>Compliance &amp; Auditing</t>
   </si>
   <si>
-    <t>https://youtu.be/Et7KDCMEAf8</t>
-  </si>
-  <si>
     <t>Object vs Block Storage</t>
   </si>
   <si>
-    <t>https://youtu.be/pdlLiL1e7uo</t>
-  </si>
-  <si>
     <t>Cloud SQL</t>
   </si>
   <si>
-    <t>https://youtu.be/AfpjM3Mo10s</t>
-  </si>
-  <si>
     <t>Cloud BigTable</t>
   </si>
   <si>
-    <t>https://youtu.be/h_zmXtSR49o</t>
-  </si>
-  <si>
     <t>Choosing the Right Storage</t>
   </si>
   <si>
-    <t>https://youtu.be/bNswkMf2a4Q</t>
-  </si>
-  <si>
     <t>Data Backup Strategies</t>
   </si>
   <si>
-    <t>https://youtu.be/zAnPoXq8S04</t>
-  </si>
-  <si>
     <t>Cloud Monitoring with CloudWatch</t>
   </si>
   <si>
-    <t>https://youtu.be/ODU4xuhXGx8</t>
-  </si>
-  <si>
     <t>Logging and Alerts</t>
   </si>
   <si>
-    <t>https://youtu.be/wJK4O3hblFo</t>
-  </si>
-  <si>
     <t>Cost Monitoring &amp; Budgets</t>
   </si>
   <si>
-    <t>https://youtu.be/qTbqkwAw-tU</t>
-  </si>
-  <si>
     <t>Cloud Health Dashboards</t>
   </si>
   <si>
-    <t>https://youtu.be/4OzhR_ThBaQ</t>
-  </si>
-  <si>
     <t>Resource Optimization</t>
   </si>
   <si>
-    <t>https://youtu.be/ZTfML0a9qR8</t>
-  </si>
-  <si>
     <t>CI/CD Concepts</t>
   </si>
   <si>
-    <t>https://youtu.be/VrTy0jLmt40</t>
-  </si>
-  <si>
     <t>Jenkins Pipeline</t>
   </si>
   <si>
-    <t>https://youtu.be/I8IKgKCDiYc</t>
-  </si>
-  <si>
     <t>GitHub Actions for Deployment</t>
   </si>
   <si>
-    <t>https://youtu.be/np9_5zIhFDY</t>
-  </si>
-  <si>
     <t>Terraform &amp; Infrastructure as Code</t>
   </si>
   <si>
-    <t>https://youtu.be/7xngnjfIlK4</t>
-  </si>
-  <si>
     <t>Final Deployment Pipeline</t>
   </si>
   <si>
-    <t>https://youtu.be/KY2FRaUY9Xc</t>
+    <t>kfAOEvNw9VQ</t>
+  </si>
+  <si>
+    <t>lVbZ8dcLh5k</t>
+  </si>
+  <si>
+    <t>zfV3TDahY6I</t>
+  </si>
+  <si>
+    <t>5g1xgW6N2mM</t>
+  </si>
+  <si>
+    <t>xMdWkP3xL4A</t>
+  </si>
+  <si>
+    <t>FZK9X2yIwO8</t>
+  </si>
+  <si>
+    <t>tU9GxsDg3Wk</t>
+  </si>
+  <si>
+    <t>1r5IGKbfvIs</t>
+  </si>
+  <si>
+    <t>TrFwFjgaH1c</t>
+  </si>
+  <si>
+    <t>zmdjNSmRXF4</t>
+  </si>
+  <si>
+    <t>mRjq-FtAzXc</t>
+  </si>
+  <si>
+    <t>GCZKzVZsAaU</t>
+  </si>
+  <si>
+    <t>VO0yJjGZSrs</t>
+  </si>
+  <si>
+    <t>LCJAGMFnJ3U</t>
+  </si>
+  <si>
+    <t>S3tB5d1ct1U</t>
+  </si>
+  <si>
+    <t>w5nbmFiPyhA</t>
+  </si>
+  <si>
+    <t>yK-Pt9oE1uA</t>
+  </si>
+  <si>
+    <t>fQ7s4XME5XQ</t>
+  </si>
+  <si>
+    <t>5ABpqVSx33I</t>
+  </si>
+  <si>
+    <t>L2vpE9X1o9U</t>
+  </si>
+  <si>
+    <t>TSNDoLrkO_k</t>
+  </si>
+  <si>
+    <t>jm7tYk1ye1M</t>
+  </si>
+  <si>
+    <t>uqddM-N35Ag</t>
+  </si>
+  <si>
+    <t>Y9EYQWH0D6o</t>
+  </si>
+  <si>
+    <t>hNSYVi1HbCs</t>
+  </si>
+  <si>
+    <t>W0Hc5o3R1ew</t>
+  </si>
+  <si>
+    <t>MIiLeGTGQ8g</t>
+  </si>
+  <si>
+    <t>sPaGr6U6vsM</t>
+  </si>
+  <si>
+    <t>jSQj1FPKexM</t>
+  </si>
+  <si>
+    <t>VtvYOKA8BLg</t>
+  </si>
+  <si>
+    <t>XjrfbqkYCAk</t>
+  </si>
+  <si>
+    <t>ya6MXcWQkCA</t>
+  </si>
+  <si>
+    <t>JuzR-p6KeR8</t>
+  </si>
+  <si>
+    <t>jbP3lDe0LzU</t>
+  </si>
+  <si>
+    <t>q37FZ3XfwQQ</t>
+  </si>
+  <si>
+    <t>BMf_yN2GhBc</t>
+  </si>
+  <si>
+    <t>QSx5C32Yf8g</t>
+  </si>
+  <si>
+    <t>SkU5AfN1AAU</t>
+  </si>
+  <si>
+    <t>eyowmloTtFA</t>
+  </si>
+  <si>
+    <t>_RQRkJtynAY</t>
+  </si>
+  <si>
+    <t>zX9ZQihQpNQ</t>
+  </si>
+  <si>
+    <t>V9t3i2cbjNo</t>
+  </si>
+  <si>
+    <t>ZRbSzE0kQ3M</t>
+  </si>
+  <si>
+    <t>XRVvU_4qYek</t>
+  </si>
+  <si>
+    <t>yRnYaRA-lpA</t>
+  </si>
+  <si>
+    <t>jP5ZKZ7RhzY</t>
+  </si>
+  <si>
+    <t>G6mCoi9hUik</t>
+  </si>
+  <si>
+    <t>rVvjONg62so</t>
+  </si>
+  <si>
+    <t>2ppT7_GiItY</t>
+  </si>
+  <si>
+    <t>iyjQykIydPA</t>
+  </si>
+  <si>
+    <t>2LaAJq1lB1Q</t>
+  </si>
+  <si>
+    <t>hhl6Htj9kPA</t>
+  </si>
+  <si>
+    <t>Tevxhn6N4zY</t>
+  </si>
+  <si>
+    <t>6AHu5RQjLPM</t>
+  </si>
+  <si>
+    <t>jG8s_ZSc4Ls</t>
+  </si>
+  <si>
+    <t>M_lWQ_CcKMo</t>
+  </si>
+  <si>
+    <t>ZdG_A2XXd68</t>
+  </si>
+  <si>
+    <t>KXDCq7AjZ3E</t>
+  </si>
+  <si>
+    <t>ilKdDTR1XEs</t>
+  </si>
+  <si>
+    <t>Et7KDCMEAf8</t>
+  </si>
+  <si>
+    <t>pdlLiL1e7uo</t>
+  </si>
+  <si>
+    <t>AfpjM3Mo10s</t>
+  </si>
+  <si>
+    <t>h_zmXtSR49o</t>
+  </si>
+  <si>
+    <t>bNswkMf2a4Q</t>
+  </si>
+  <si>
+    <t>zAnPoXq8S04</t>
+  </si>
+  <si>
+    <t>ODU4xuhXGx8</t>
+  </si>
+  <si>
+    <t>wJK4O3hblFo</t>
+  </si>
+  <si>
+    <t>qTbqkwAw-tU</t>
+  </si>
+  <si>
+    <t>4OzhR_ThBaQ</t>
+  </si>
+  <si>
+    <t>ZTfML0a9qR8</t>
+  </si>
+  <si>
+    <t>VrTy0jLmt40</t>
+  </si>
+  <si>
+    <t>I8IKgKCDiYc</t>
+  </si>
+  <si>
+    <t>np9_5zIhFDY</t>
+  </si>
+  <si>
+    <t>7xngnjfIlK4</t>
+  </si>
+  <si>
+    <t>KY2FRaUY9Xc</t>
   </si>
 </sst>
 </file>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -986,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1000,10 +1000,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1131,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1197,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1337,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -1352,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -1388,10 +1388,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -1406,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1424,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -1442,10 +1442,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="K8" s="2"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="K9" s="2"/>
     </row>
@@ -1478,10 +1478,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -1496,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -1514,10 +1514,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -1535,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1550,10 +1550,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -1568,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1586,10 +1586,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1607,7 +1607,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -1622,10 +1622,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1640,10 +1640,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="K20" s="2"/>
     </row>
@@ -1676,10 +1676,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="K21" s="2"/>
     </row>
@@ -1694,10 +1694,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1712,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="K23" s="2"/>
     </row>
@@ -1730,10 +1730,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="K24" s="2"/>
     </row>
@@ -1748,10 +1748,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="K25" s="2"/>
     </row>
@@ -1766,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1789,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="2"/>
@@ -1806,10 +1806,10 @@
         <v>6</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1826,10 +1826,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1846,10 +1846,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1866,10 +1866,10 @@
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1886,10 +1886,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
@@ -1906,10 +1906,10 @@
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1926,10 +1926,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1946,10 +1946,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1966,10 +1966,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1986,10 +1986,10 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="2"/>
@@ -2006,10 +2006,10 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2026,10 +2026,10 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2046,10 +2046,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2066,10 +2066,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2086,10 +2086,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="2"/>
@@ -2106,10 +2106,10 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2126,10 +2126,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2146,10 +2146,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2166,10 +2166,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -2186,10 +2186,10 @@
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="2"/>
@@ -2206,10 +2206,10 @@
         <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -2226,10 +2226,10 @@
         <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -2246,10 +2246,10 @@
         <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -2266,10 +2266,10 @@
         <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -2289,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -2303,10 +2303,10 @@
         <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2320,10 +2320,10 @@
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2337,10 +2337,10 @@
         <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -2354,10 +2354,10 @@
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -2371,10 +2371,10 @@
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -2388,10 +2388,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -2405,10 +2405,10 @@
         <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -2422,10 +2422,10 @@
         <v>12</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -2439,10 +2439,10 @@
         <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -2456,10 +2456,10 @@
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -2473,10 +2473,10 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -2490,10 +2490,10 @@
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2507,10 +2507,10 @@
         <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2524,10 +2524,10 @@
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2541,10 +2541,10 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2558,10 +2558,10 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2575,10 +2575,10 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2592,10 +2592,10 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2609,10 +2609,10 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2626,10 +2626,10 @@
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2643,10 +2643,10 @@
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2660,10 +2660,10 @@
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2677,10 +2677,10 @@
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2694,90 +2694,13 @@
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
-    <hyperlink ref="E75" r:id="rId74"/>
-    <hyperlink ref="E76" r:id="rId75"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>